--- a/bountifulfoods/Book1.xlsx
+++ b/bountifulfoods/Book1.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://saipem-my.sharepoint.com/personal/nicardo_jailall_saipem_com/Documents/Documents/Jan2023/wdd230/Week 1/bountiful foods/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://saipem-my.sharepoint.com/personal/nicardo_jailall_saipem_com/Documents/Documents/Jan2023/wdd230/Week 1/bountifulfoods/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="88" documentId="8_{B303B8E9-C2AF-4794-9523-D205E7FAF6B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1A3C7613-03B3-4C61-8AD6-882103674CFB}"/>
+  <xr:revisionPtr revIDLastSave="281" documentId="8_{B303B8E9-C2AF-4794-9523-D205E7FAF6B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{32551542-5BC8-4AAA-9877-C37A05D8D9C0}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{E870BC62-A124-4EEA-899B-4002B5DDD53D}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{E870BC62-A124-4EEA-899B-4002B5DDD53D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="88">
   <si>
     <t>Site Name</t>
   </si>
@@ -89,9 +89,6 @@
     <t>Motivation:</t>
   </si>
   <si>
-    <t>Fruit &amp; Juice wants to accommodate you livestyle and</t>
-  </si>
-  <si>
     <t xml:space="preserve"> health needs with tasty options that is healthy for you</t>
   </si>
   <si>
@@ -216,13 +213,100 @@
   </si>
   <si>
     <t>2em</t>
+  </si>
+  <si>
+    <t>Primary Navigation</t>
+  </si>
+  <si>
+    <t>White</t>
+  </si>
+  <si>
+    <t>Open Sans, sans-serif</t>
+  </si>
+  <si>
+    <t>green</t>
+  </si>
+  <si>
+    <t>Footer</t>
+  </si>
+  <si>
+    <t>Heading1</t>
+  </si>
+  <si>
+    <t>red</t>
+  </si>
+  <si>
+    <t>Heading2</t>
+  </si>
+  <si>
+    <t>1em</t>
+  </si>
+  <si>
+    <t>Heading3</t>
+  </si>
+  <si>
+    <t>Paragraph</t>
+  </si>
+  <si>
+    <t>Site Map</t>
+  </si>
+  <si>
+    <t>Home</t>
+  </si>
+  <si>
+    <t>Fresh</t>
+  </si>
+  <si>
+    <t>Menu</t>
+  </si>
+  <si>
+    <t>About US</t>
+  </si>
+  <si>
+    <t>Fruit Display</t>
+  </si>
+  <si>
+    <t>drinks user made</t>
+  </si>
+  <si>
+    <t>weather</t>
+  </si>
+  <si>
+    <t>Summary</t>
+  </si>
+  <si>
+    <t>link to make drink</t>
+  </si>
+  <si>
+    <t>form to make frink</t>
+  </si>
+  <si>
+    <t>list of fruits and</t>
+  </si>
+  <si>
+    <t>info</t>
+  </si>
+  <si>
+    <t>contact</t>
+  </si>
+  <si>
+    <t>message</t>
+  </si>
+  <si>
+    <t>Typography / Color Scheme</t>
+  </si>
+  <si>
+    <t>auto</t>
+  </si>
+  <si>
+    <t>Bountiful Foods wants to accommodate you livestyle and</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -301,13 +385,67 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF002060"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color rgb="FFC00000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -338,8 +476,32 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFCC0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="22">
+  <borders count="25">
     <border>
       <left/>
       <right/>
@@ -561,16 +723,47 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color theme="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color theme="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color theme="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color theme="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -578,7 +771,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="55">
+  <cellXfs count="79">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
@@ -633,8 +826,26 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -645,35 +856,57 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -682,6 +915,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFCC0000"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -695,50 +933,6 @@
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>1</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>1</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>320041</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>17964</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{40B5BF94-6D64-3519-31C9-6DB6370B4A0F}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="304801" y="3040381"/>
-          <a:ext cx="1531620" cy="945698"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>2</xdr:col>
@@ -766,7 +960,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -810,7 +1004,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -827,11 +1021,51 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>72390</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>177166</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>555111</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>133351</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2E802FF0-BF48-FBE0-C4A9-CF2B5ABC55B1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="891540" y="5263516"/>
+          <a:ext cx="1698111" cy="1038225"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1131,32 +1365,34 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF666EB5-B814-414C-847C-47572BAF2E58}">
-  <dimension ref="B1:J260"/>
+  <dimension ref="A1:J295"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A254" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="N266" sqref="N266"/>
+    <sheetView tabSelected="1" topLeftCell="A228" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L242" sqref="L242"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="11.109375" customWidth="1"/>
-    <col min="2" max="2" width="1.88671875" customWidth="1"/>
-    <col min="9" max="9" width="7.77734375" customWidth="1"/>
+    <col min="2" max="2" width="0.77734375" customWidth="1"/>
+    <col min="6" max="6" width="10.33203125" customWidth="1"/>
+    <col min="8" max="8" width="8.5546875" customWidth="1"/>
+    <col min="9" max="9" width="11.6640625" customWidth="1"/>
     <col min="10" max="10" width="0.44140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:10" ht="52.2" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:10" ht="25.8" x14ac:dyDescent="0.5">
       <c r="B2" s="1"/>
-      <c r="C2" s="40" t="s">
+      <c r="C2" s="42" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="40"/>
-      <c r="E2" s="40"/>
-      <c r="F2" s="40"/>
-      <c r="G2" s="40"/>
-      <c r="H2" s="40"/>
-      <c r="I2" s="40"/>
+      <c r="D2" s="42"/>
+      <c r="E2" s="42"/>
+      <c r="F2" s="42"/>
+      <c r="G2" s="42"/>
+      <c r="H2" s="42"/>
+      <c r="I2" s="42"/>
       <c r="J2" s="2"/>
     </row>
     <row r="3" spans="2:10" x14ac:dyDescent="0.3">
@@ -1165,10 +1401,10 @@
     </row>
     <row r="4" spans="2:10" ht="21" x14ac:dyDescent="0.4">
       <c r="B4" s="3"/>
-      <c r="C4" s="41" t="s">
+      <c r="C4" s="47" t="s">
         <v>0</v>
       </c>
-      <c r="D4" s="41"/>
+      <c r="D4" s="47"/>
       <c r="J4" s="4"/>
     </row>
     <row r="5" spans="2:10" x14ac:dyDescent="0.3">
@@ -1179,10 +1415,10 @@
     </row>
     <row r="6" spans="2:10" ht="18" x14ac:dyDescent="0.35">
       <c r="B6" s="3"/>
-      <c r="C6" s="42" t="s">
-        <v>50</v>
-      </c>
-      <c r="D6" s="42"/>
+      <c r="C6" s="48" t="s">
+        <v>49</v>
+      </c>
+      <c r="D6" s="48"/>
       <c r="J6" s="4"/>
     </row>
     <row r="7" spans="2:10" x14ac:dyDescent="0.3">
@@ -1195,10 +1431,10 @@
     </row>
     <row r="9" spans="2:10" ht="21" x14ac:dyDescent="0.4">
       <c r="B9" s="3"/>
-      <c r="C9" s="43" t="s">
+      <c r="C9" s="49" t="s">
         <v>1</v>
       </c>
-      <c r="D9" s="43"/>
+      <c r="D9" s="49"/>
       <c r="J9" s="4"/>
     </row>
     <row r="10" spans="2:10" x14ac:dyDescent="0.3">
@@ -1210,7 +1446,7 @@
     <row r="11" spans="2:10" ht="18" x14ac:dyDescent="0.35">
       <c r="B11" s="3"/>
       <c r="C11" s="44" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D11" s="44"/>
       <c r="E11" s="44"/>
@@ -1223,7 +1459,7 @@
     <row r="12" spans="2:10" ht="18" x14ac:dyDescent="0.35">
       <c r="B12" s="3"/>
       <c r="C12" s="44" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D12" s="44"/>
       <c r="E12" s="44"/>
@@ -1263,10 +1499,10 @@
     </row>
     <row r="16" spans="2:10" ht="21" x14ac:dyDescent="0.4">
       <c r="B16" s="3"/>
-      <c r="C16" s="43" t="s">
+      <c r="C16" s="49" t="s">
         <v>2</v>
       </c>
-      <c r="D16" s="43"/>
+      <c r="D16" s="49"/>
       <c r="J16" s="4"/>
     </row>
     <row r="17" spans="2:10" x14ac:dyDescent="0.3">
@@ -1277,16 +1513,16 @@
     </row>
     <row r="18" spans="2:10" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="B18" s="3"/>
-      <c r="C18" s="46" t="s">
+      <c r="C18" s="50" t="s">
         <v>5</v>
       </c>
-      <c r="D18" s="46"/>
-      <c r="E18" s="46"/>
-      <c r="F18" s="46"/>
-      <c r="G18" s="46"/>
-      <c r="H18" s="46"/>
-      <c r="I18" s="46"/>
-      <c r="J18" s="47"/>
+      <c r="D18" s="50"/>
+      <c r="E18" s="50"/>
+      <c r="F18" s="50"/>
+      <c r="G18" s="50"/>
+      <c r="H18" s="50"/>
+      <c r="I18" s="50"/>
+      <c r="J18" s="51"/>
     </row>
     <row r="19" spans="2:10" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="B19" s="3"/>
@@ -1307,10 +1543,10 @@
     </row>
     <row r="21" spans="2:10" ht="21" x14ac:dyDescent="0.4">
       <c r="B21" s="3"/>
-      <c r="C21" s="43" t="s">
+      <c r="C21" s="49" t="s">
         <v>3</v>
       </c>
-      <c r="D21" s="43"/>
+      <c r="D21" s="49"/>
       <c r="J21" s="4"/>
     </row>
     <row r="22" spans="2:10" x14ac:dyDescent="0.3">
@@ -1349,16 +1585,16 @@
       <c r="J28" s="13"/>
     </row>
     <row r="45" spans="2:9" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="B45" s="49" t="s">
+      <c r="B45" s="41" t="s">
         <v>7</v>
       </c>
-      <c r="C45" s="40"/>
-      <c r="D45" s="40"/>
-      <c r="E45" s="40"/>
-      <c r="F45" s="40"/>
-      <c r="G45" s="40"/>
-      <c r="H45" s="40"/>
-      <c r="I45" s="50"/>
+      <c r="C45" s="42"/>
+      <c r="D45" s="42"/>
+      <c r="E45" s="42"/>
+      <c r="F45" s="42"/>
+      <c r="G45" s="42"/>
+      <c r="H45" s="42"/>
+      <c r="I45" s="43"/>
     </row>
     <row r="46" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B46" s="3"/>
@@ -1423,10 +1659,10 @@
     </row>
     <row r="55" spans="2:9" ht="21" x14ac:dyDescent="0.4">
       <c r="B55" s="3"/>
-      <c r="C55" s="51" t="s">
+      <c r="C55" s="46" t="s">
         <v>13</v>
       </c>
-      <c r="D55" s="51"/>
+      <c r="D55" s="46"/>
       <c r="I55" s="4"/>
     </row>
     <row r="56" spans="2:9" x14ac:dyDescent="0.3">
@@ -1453,10 +1689,10 @@
     </row>
     <row r="60" spans="2:9" ht="21" x14ac:dyDescent="0.4">
       <c r="B60" s="3"/>
-      <c r="C60" s="51" t="s">
+      <c r="C60" s="46" t="s">
         <v>16</v>
       </c>
-      <c r="D60" s="51"/>
+      <c r="D60" s="46"/>
       <c r="I60" s="4"/>
     </row>
     <row r="61" spans="2:9" x14ac:dyDescent="0.3">
@@ -1466,7 +1702,7 @@
     <row r="62" spans="2:9" ht="18" x14ac:dyDescent="0.35">
       <c r="B62" s="3"/>
       <c r="C62" s="44" t="s">
-        <v>17</v>
+        <v>87</v>
       </c>
       <c r="D62" s="44"/>
       <c r="E62" s="44"/>
@@ -1478,7 +1714,7 @@
     <row r="63" spans="2:9" ht="18" x14ac:dyDescent="0.35">
       <c r="B63" s="3"/>
       <c r="C63" s="44" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D63" s="44"/>
       <c r="E63" s="44"/>
@@ -1498,7 +1734,7 @@
     <row r="66" spans="2:9" ht="21" x14ac:dyDescent="0.4">
       <c r="B66" s="3"/>
       <c r="C66" s="18" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D66" s="18"/>
       <c r="E66" s="18"/>
@@ -1511,21 +1747,21 @@
     <row r="68" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B68" s="3"/>
       <c r="F68" s="19" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I68" s="4"/>
     </row>
     <row r="69" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B69" s="3"/>
       <c r="F69" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I69" s="4"/>
     </row>
     <row r="70" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B70" s="3"/>
       <c r="F70" s="19" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G70" s="20"/>
       <c r="H70" s="20"/>
@@ -1534,42 +1770,42 @@
     <row r="71" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B71" s="3"/>
       <c r="F71" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I71" s="4"/>
     </row>
     <row r="72" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B72" s="3"/>
       <c r="F72" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I72" s="4"/>
     </row>
     <row r="73" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B73" s="3"/>
       <c r="F73" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I73" s="4"/>
     </row>
     <row r="74" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B74" s="3"/>
       <c r="F74" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I74" s="4"/>
     </row>
     <row r="75" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B75" s="3"/>
       <c r="F75" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I75" s="4"/>
     </row>
     <row r="76" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B76" s="3"/>
       <c r="F76" s="19" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G76" s="20"/>
       <c r="I76" s="4"/>
@@ -1577,14 +1813,14 @@
     <row r="77" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B77" s="3"/>
       <c r="F77" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I77" s="4"/>
     </row>
     <row r="78" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B78" s="3"/>
       <c r="F78" s="19" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G78" s="20"/>
       <c r="I78" s="4"/>
@@ -1592,21 +1828,21 @@
     <row r="79" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B79" s="3"/>
       <c r="F79" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I79" s="4"/>
     </row>
     <row r="80" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B80" s="3"/>
       <c r="F80" s="19" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I80" s="4"/>
     </row>
     <row r="81" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B81" s="3"/>
       <c r="F81" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I81" s="4"/>
     </row>
@@ -1623,7 +1859,7 @@
     <row r="85" spans="2:9" ht="21" x14ac:dyDescent="0.4">
       <c r="B85" s="1"/>
       <c r="C85" s="21" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D85" s="22"/>
       <c r="E85" s="22"/>
@@ -1639,21 +1875,21 @@
     <row r="87" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B87" s="3"/>
       <c r="F87" s="19" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I87" s="4"/>
     </row>
     <row r="88" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B88" s="3"/>
       <c r="F88" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I88" s="4"/>
     </row>
     <row r="89" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B89" s="3"/>
       <c r="F89" s="19" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G89" s="20"/>
       <c r="H89" s="20"/>
@@ -1662,52 +1898,52 @@
     <row r="90" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B90" s="3"/>
       <c r="F90" s="39" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G90" s="39"/>
       <c r="H90" s="39"/>
-      <c r="I90" s="48"/>
+      <c r="I90" s="40"/>
     </row>
     <row r="91" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B91" s="3"/>
       <c r="F91" s="39" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G91" s="39"/>
       <c r="H91" s="39"/>
-      <c r="I91" s="48"/>
+      <c r="I91" s="40"/>
     </row>
     <row r="92" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B92" s="3"/>
       <c r="F92" s="39" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G92" s="39"/>
       <c r="H92" s="39"/>
-      <c r="I92" s="48"/>
+      <c r="I92" s="40"/>
     </row>
     <row r="93" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B93" s="3"/>
       <c r="F93" s="39" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G93" s="39"/>
       <c r="H93" s="39"/>
-      <c r="I93" s="48"/>
+      <c r="I93" s="40"/>
     </row>
     <row r="94" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B94" s="3"/>
       <c r="F94" s="39" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G94" s="39"/>
       <c r="H94" s="39"/>
-      <c r="I94" s="48"/>
+      <c r="I94" s="40"/>
     </row>
     <row r="95" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B95" s="3"/>
       <c r="F95" s="19" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G95" s="20"/>
       <c r="I95" s="4"/>
@@ -1715,14 +1951,14 @@
     <row r="96" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B96" s="3"/>
       <c r="F96" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I96" s="4"/>
     </row>
     <row r="97" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B97" s="3"/>
       <c r="F97" s="19" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G97" s="20"/>
       <c r="I97" s="4"/>
@@ -1730,28 +1966,28 @@
     <row r="98" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B98" s="3"/>
       <c r="F98" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I98" s="4"/>
     </row>
     <row r="99" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B99" s="3"/>
       <c r="F99" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I99" s="4"/>
     </row>
     <row r="100" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B100" s="3"/>
       <c r="F100" s="19" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I100" s="4"/>
     </row>
     <row r="101" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B101" s="3"/>
       <c r="F101" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I101" s="4"/>
     </row>
@@ -1778,7 +2014,7 @@
     <row r="107" spans="2:9" ht="21" x14ac:dyDescent="0.4">
       <c r="B107" s="3"/>
       <c r="C107" s="23" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D107" s="23"/>
       <c r="I107" s="4"/>
@@ -1790,7 +2026,7 @@
     <row r="109" spans="2:9" ht="18" x14ac:dyDescent="0.35">
       <c r="B109" s="3"/>
       <c r="C109" s="15" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D109" s="15"/>
       <c r="E109" s="15"/>
@@ -1801,7 +2037,7 @@
     <row r="110" spans="2:9" ht="18" x14ac:dyDescent="0.35">
       <c r="B110" s="3"/>
       <c r="C110" s="15" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D110" s="15"/>
       <c r="E110" s="15"/>
@@ -1812,7 +2048,7 @@
     <row r="111" spans="2:9" ht="18" x14ac:dyDescent="0.35">
       <c r="B111" s="3"/>
       <c r="C111" s="15" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D111" s="15"/>
       <c r="E111" s="15"/>
@@ -1823,7 +2059,7 @@
     <row r="112" spans="2:9" ht="18" x14ac:dyDescent="0.35">
       <c r="B112" s="3"/>
       <c r="C112" s="15" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D112" s="15"/>
       <c r="E112" s="15"/>
@@ -1834,7 +2070,7 @@
     <row r="113" spans="2:9" ht="18" x14ac:dyDescent="0.35">
       <c r="B113" s="3"/>
       <c r="C113" s="15" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D113" s="15"/>
       <c r="E113" s="15"/>
@@ -1856,25 +2092,29 @@
       <c r="H115" s="12"/>
       <c r="I115" s="13"/>
     </row>
-    <row r="128" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="D128" s="39" t="s">
-        <v>53</v>
-      </c>
-      <c r="E128" s="39"/>
-      <c r="F128" s="39"/>
-      <c r="G128" s="39"/>
+    <row r="127" spans="2:9" ht="18" x14ac:dyDescent="0.35">
+      <c r="D127" s="76" t="s">
+        <v>52</v>
+      </c>
+      <c r="E127" s="76"/>
+      <c r="F127" s="76"/>
+      <c r="G127" s="76"/>
+    </row>
+    <row r="129" spans="5:9" x14ac:dyDescent="0.3">
+      <c r="G129" s="37"/>
+      <c r="H129" s="38"/>
+      <c r="I129" s="36"/>
     </row>
     <row r="130" spans="5:9" x14ac:dyDescent="0.3">
-      <c r="G130" s="26"/>
-      <c r="H130" s="26"/>
-      <c r="I130" s="26"/>
+      <c r="E130" s="27"/>
+      <c r="F130" s="28"/>
+      <c r="G130" s="24"/>
+      <c r="H130" s="24"/>
+      <c r="I130" s="25"/>
     </row>
     <row r="131" spans="5:9" x14ac:dyDescent="0.3">
-      <c r="E131" s="27"/>
-      <c r="F131" s="28"/>
-      <c r="G131" s="24"/>
-      <c r="H131" s="24"/>
-      <c r="I131" s="25"/>
+      <c r="E131" s="29"/>
+      <c r="F131" s="30"/>
     </row>
     <row r="132" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E132" s="29"/>
@@ -1882,25 +2122,28 @@
     </row>
     <row r="133" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E133" s="29"/>
-      <c r="F133" s="30"/>
+      <c r="F133" s="34"/>
+      <c r="G133" s="37"/>
+      <c r="H133" s="38"/>
+      <c r="I133" s="36"/>
     </row>
     <row r="134" spans="5:9" x14ac:dyDescent="0.3">
-      <c r="E134" s="29"/>
-      <c r="F134" s="34"/>
-      <c r="G134" s="37"/>
-      <c r="H134" s="38"/>
-      <c r="I134" s="36"/>
-    </row>
-    <row r="135" spans="5:9" x14ac:dyDescent="0.3">
-      <c r="E135" s="31"/>
-      <c r="F135" s="32"/>
+      <c r="E134" s="31"/>
+      <c r="F134" s="32"/>
+    </row>
+    <row r="136" spans="5:9" x14ac:dyDescent="0.3">
+      <c r="E136" s="27"/>
+      <c r="F136" s="33"/>
+      <c r="G136" s="33"/>
+      <c r="H136" s="33"/>
+      <c r="I136" s="28"/>
     </row>
     <row r="137" spans="5:9" x14ac:dyDescent="0.3">
-      <c r="E137" s="27"/>
-      <c r="F137" s="33"/>
-      <c r="G137" s="33"/>
-      <c r="H137" s="33"/>
-      <c r="I137" s="28"/>
+      <c r="E137" s="29"/>
+      <c r="F137" s="34"/>
+      <c r="G137" s="34"/>
+      <c r="H137" s="34"/>
+      <c r="I137" s="30"/>
     </row>
     <row r="138" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E138" s="29"/>
@@ -1938,25 +2181,25 @@
       <c r="I142" s="30"/>
     </row>
     <row r="143" spans="5:9" x14ac:dyDescent="0.3">
-      <c r="E143" s="29"/>
-      <c r="F143" s="34"/>
-      <c r="G143" s="34"/>
-      <c r="H143" s="34"/>
-      <c r="I143" s="30"/>
-    </row>
-    <row r="144" spans="5:9" x14ac:dyDescent="0.3">
-      <c r="E144" s="31"/>
-      <c r="F144" s="35"/>
-      <c r="G144" s="35"/>
-      <c r="H144" s="35"/>
-      <c r="I144" s="32"/>
+      <c r="E143" s="31"/>
+      <c r="F143" s="35"/>
+      <c r="G143" s="35"/>
+      <c r="H143" s="35"/>
+      <c r="I143" s="32"/>
+    </row>
+    <row r="145" spans="5:9" x14ac:dyDescent="0.3">
+      <c r="E145" s="27"/>
+      <c r="F145" s="33"/>
+      <c r="G145" s="33"/>
+      <c r="H145" s="33"/>
+      <c r="I145" s="28"/>
     </row>
     <row r="146" spans="5:9" x14ac:dyDescent="0.3">
-      <c r="E146" s="27"/>
-      <c r="F146" s="33"/>
-      <c r="G146" s="33"/>
-      <c r="H146" s="33"/>
-      <c r="I146" s="28"/>
+      <c r="E146" s="29"/>
+      <c r="F146" s="34"/>
+      <c r="G146" s="34"/>
+      <c r="H146" s="34"/>
+      <c r="I146" s="30"/>
     </row>
     <row r="147" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E147" s="29"/>
@@ -1966,25 +2209,25 @@
       <c r="I147" s="30"/>
     </row>
     <row r="148" spans="5:9" x14ac:dyDescent="0.3">
-      <c r="E148" s="29"/>
-      <c r="F148" s="34"/>
-      <c r="G148" s="34"/>
-      <c r="H148" s="34"/>
-      <c r="I148" s="30"/>
-    </row>
-    <row r="149" spans="5:9" x14ac:dyDescent="0.3">
-      <c r="E149" s="31"/>
-      <c r="F149" s="35"/>
-      <c r="G149" s="35"/>
-      <c r="H149" s="35"/>
-      <c r="I149" s="32"/>
+      <c r="E148" s="31"/>
+      <c r="F148" s="35"/>
+      <c r="G148" s="35"/>
+      <c r="H148" s="35"/>
+      <c r="I148" s="32"/>
+    </row>
+    <row r="150" spans="5:9" x14ac:dyDescent="0.3">
+      <c r="E150" s="27"/>
+      <c r="F150" s="33"/>
+      <c r="G150" s="33"/>
+      <c r="H150" s="33"/>
+      <c r="I150" s="28"/>
     </row>
     <row r="151" spans="5:9" x14ac:dyDescent="0.3">
-      <c r="E151" s="27"/>
-      <c r="F151" s="33"/>
-      <c r="G151" s="33"/>
-      <c r="H151" s="33"/>
-      <c r="I151" s="28"/>
+      <c r="E151" s="29"/>
+      <c r="F151" s="34"/>
+      <c r="G151" s="34"/>
+      <c r="H151" s="34"/>
+      <c r="I151" s="30"/>
     </row>
     <row r="152" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E152" s="29"/>
@@ -2008,25 +2251,25 @@
       <c r="I154" s="30"/>
     </row>
     <row r="155" spans="5:9" x14ac:dyDescent="0.3">
-      <c r="E155" s="29"/>
-      <c r="F155" s="34"/>
-      <c r="G155" s="34"/>
-      <c r="H155" s="34"/>
-      <c r="I155" s="30"/>
-    </row>
-    <row r="156" spans="5:9" x14ac:dyDescent="0.3">
-      <c r="E156" s="31"/>
-      <c r="F156" s="35"/>
-      <c r="G156" s="35"/>
-      <c r="H156" s="35"/>
-      <c r="I156" s="32"/>
+      <c r="E155" s="31"/>
+      <c r="F155" s="35"/>
+      <c r="G155" s="35"/>
+      <c r="H155" s="35"/>
+      <c r="I155" s="32"/>
+    </row>
+    <row r="157" spans="5:9" x14ac:dyDescent="0.3">
+      <c r="E157" s="27"/>
+      <c r="F157" s="33"/>
+      <c r="G157" s="33"/>
+      <c r="H157" s="33"/>
+      <c r="I157" s="28"/>
     </row>
     <row r="158" spans="5:9" x14ac:dyDescent="0.3">
-      <c r="E158" s="27"/>
-      <c r="F158" s="33"/>
-      <c r="G158" s="33"/>
-      <c r="H158" s="33"/>
-      <c r="I158" s="28"/>
+      <c r="E158" s="29"/>
+      <c r="F158" s="34"/>
+      <c r="G158" s="34"/>
+      <c r="H158" s="34"/>
+      <c r="I158" s="30"/>
     </row>
     <row r="159" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E159" s="29"/>
@@ -2043,25 +2286,25 @@
       <c r="I160" s="30"/>
     </row>
     <row r="161" spans="5:9" x14ac:dyDescent="0.3">
-      <c r="E161" s="29"/>
-      <c r="F161" s="34"/>
-      <c r="G161" s="34"/>
-      <c r="H161" s="34"/>
-      <c r="I161" s="30"/>
-    </row>
-    <row r="162" spans="5:9" x14ac:dyDescent="0.3">
-      <c r="E162" s="31"/>
-      <c r="F162" s="35"/>
-      <c r="G162" s="35"/>
-      <c r="H162" s="35"/>
-      <c r="I162" s="32"/>
+      <c r="E161" s="31"/>
+      <c r="F161" s="35"/>
+      <c r="G161" s="35"/>
+      <c r="H161" s="35"/>
+      <c r="I161" s="32"/>
+    </row>
+    <row r="163" spans="5:9" x14ac:dyDescent="0.3">
+      <c r="E163" s="27"/>
+      <c r="F163" s="33"/>
+      <c r="G163" s="33"/>
+      <c r="H163" s="33"/>
+      <c r="I163" s="28"/>
     </row>
     <row r="164" spans="5:9" x14ac:dyDescent="0.3">
-      <c r="E164" s="27"/>
-      <c r="F164" s="33"/>
-      <c r="G164" s="33"/>
-      <c r="H164" s="33"/>
-      <c r="I164" s="28"/>
+      <c r="E164" s="29"/>
+      <c r="F164" s="34"/>
+      <c r="G164" s="34"/>
+      <c r="H164" s="34"/>
+      <c r="I164" s="30"/>
     </row>
     <row r="165" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E165" s="29"/>
@@ -2085,59 +2328,57 @@
       <c r="I167" s="30"/>
     </row>
     <row r="168" spans="5:9" x14ac:dyDescent="0.3">
-      <c r="E168" s="29"/>
-      <c r="F168" s="34"/>
-      <c r="G168" s="34"/>
-      <c r="H168" s="34"/>
-      <c r="I168" s="30"/>
-    </row>
-    <row r="169" spans="5:9" x14ac:dyDescent="0.3">
-      <c r="E169" s="31"/>
-      <c r="F169" s="35"/>
-      <c r="G169" s="35"/>
-      <c r="H169" s="35"/>
-      <c r="I169" s="32"/>
+      <c r="E168" s="31"/>
+      <c r="F168" s="35"/>
+      <c r="G168" s="35"/>
+      <c r="H168" s="35"/>
+      <c r="I168" s="32"/>
+    </row>
+    <row r="170" spans="5:9" x14ac:dyDescent="0.3">
+      <c r="E170" s="27"/>
+      <c r="F170" s="33"/>
+      <c r="G170" s="33"/>
+      <c r="H170" s="33"/>
+      <c r="I170" s="28"/>
     </row>
     <row r="171" spans="5:9" x14ac:dyDescent="0.3">
-      <c r="E171" s="27"/>
-      <c r="F171" s="33"/>
-      <c r="G171" s="33"/>
-      <c r="H171" s="33"/>
-      <c r="I171" s="28"/>
+      <c r="E171" s="29"/>
+      <c r="F171" s="34"/>
+      <c r="G171" s="34"/>
+      <c r="H171" s="34"/>
+      <c r="I171" s="30"/>
     </row>
     <row r="172" spans="5:9" x14ac:dyDescent="0.3">
-      <c r="E172" s="29"/>
-      <c r="F172" s="34"/>
-      <c r="G172" s="34"/>
-      <c r="H172" s="34"/>
-      <c r="I172" s="30"/>
-    </row>
-    <row r="173" spans="5:9" x14ac:dyDescent="0.3">
-      <c r="E173" s="31"/>
-      <c r="F173" s="35"/>
-      <c r="G173" s="35"/>
-      <c r="H173" s="35"/>
-      <c r="I173" s="32"/>
-    </row>
-    <row r="175" spans="5:9" x14ac:dyDescent="0.3">
-      <c r="E175" s="39" t="s">
-        <v>54</v>
-      </c>
-      <c r="F175" s="39"/>
-      <c r="G175" s="39"/>
+      <c r="E172" s="31"/>
+      <c r="F172" s="35"/>
+      <c r="G172" s="35"/>
+      <c r="H172" s="35"/>
+      <c r="I172" s="32"/>
+    </row>
+    <row r="174" spans="5:9" ht="18" x14ac:dyDescent="0.35">
+      <c r="E174" s="76" t="s">
+        <v>53</v>
+      </c>
+      <c r="F174" s="76"/>
+      <c r="G174" s="76"/>
+    </row>
+    <row r="176" spans="5:9" x14ac:dyDescent="0.3">
+      <c r="G176" s="37"/>
+      <c r="H176" s="38"/>
+      <c r="I176" s="36"/>
     </row>
     <row r="177" spans="4:9" x14ac:dyDescent="0.3">
-      <c r="G177" s="26"/>
-      <c r="H177" s="26"/>
-      <c r="I177" s="26"/>
+      <c r="D177" s="27"/>
+      <c r="E177" s="33"/>
+      <c r="F177" s="28"/>
+      <c r="G177" s="24"/>
+      <c r="H177" s="24"/>
+      <c r="I177" s="25"/>
     </row>
     <row r="178" spans="4:9" x14ac:dyDescent="0.3">
-      <c r="D178" s="27"/>
-      <c r="E178" s="33"/>
-      <c r="F178" s="28"/>
-      <c r="G178" s="24"/>
-      <c r="H178" s="24"/>
-      <c r="I178" s="25"/>
+      <c r="D178" s="29"/>
+      <c r="E178" s="34"/>
+      <c r="F178" s="30"/>
     </row>
     <row r="179" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D179" s="29"/>
@@ -2147,28 +2388,31 @@
     <row r="180" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D180" s="29"/>
       <c r="E180" s="34"/>
-      <c r="F180" s="30"/>
+      <c r="F180" s="34"/>
+      <c r="G180" s="37"/>
+      <c r="H180" s="38"/>
+      <c r="I180" s="36"/>
     </row>
     <row r="181" spans="4:9" x14ac:dyDescent="0.3">
-      <c r="D181" s="29"/>
-      <c r="E181" s="34"/>
-      <c r="F181" s="34"/>
-      <c r="G181" s="37"/>
-      <c r="H181" s="38"/>
-      <c r="I181" s="36"/>
-    </row>
-    <row r="182" spans="4:9" x14ac:dyDescent="0.3">
-      <c r="D182" s="31"/>
-      <c r="E182" s="35"/>
-      <c r="F182" s="32"/>
+      <c r="D181" s="31"/>
+      <c r="E181" s="35"/>
+      <c r="F181" s="32"/>
+    </row>
+    <row r="183" spans="4:9" x14ac:dyDescent="0.3">
+      <c r="D183" s="27"/>
+      <c r="E183" s="33"/>
+      <c r="F183" s="33"/>
+      <c r="G183" s="33"/>
+      <c r="H183" s="33"/>
+      <c r="I183" s="28"/>
     </row>
     <row r="184" spans="4:9" x14ac:dyDescent="0.3">
-      <c r="D184" s="27"/>
-      <c r="E184" s="33"/>
-      <c r="F184" s="33"/>
-      <c r="G184" s="33"/>
-      <c r="H184" s="33"/>
-      <c r="I184" s="28"/>
+      <c r="D184" s="29"/>
+      <c r="E184" s="34"/>
+      <c r="F184" s="34"/>
+      <c r="G184" s="34"/>
+      <c r="H184" s="34"/>
+      <c r="I184" s="30"/>
     </row>
     <row r="185" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D185" s="29"/>
@@ -2211,98 +2455,98 @@
       <c r="I189" s="30"/>
     </row>
     <row r="190" spans="4:9" x14ac:dyDescent="0.3">
-      <c r="D190" s="29"/>
-      <c r="E190" s="34"/>
-      <c r="F190" s="34"/>
-      <c r="G190" s="34"/>
-      <c r="H190" s="34"/>
-      <c r="I190" s="30"/>
-    </row>
-    <row r="191" spans="4:9" x14ac:dyDescent="0.3">
-      <c r="D191" s="31"/>
-      <c r="E191" s="35"/>
-      <c r="F191" s="35"/>
-      <c r="G191" s="35"/>
-      <c r="H191" s="35"/>
-      <c r="I191" s="32"/>
+      <c r="D190" s="31"/>
+      <c r="E190" s="35"/>
+      <c r="F190" s="35"/>
+      <c r="G190" s="35"/>
+      <c r="H190" s="35"/>
+      <c r="I190" s="32"/>
+    </row>
+    <row r="192" spans="4:9" x14ac:dyDescent="0.3">
+      <c r="D192" s="34"/>
+      <c r="E192" s="34"/>
+      <c r="F192" s="34"/>
+      <c r="G192" s="34"/>
+      <c r="H192" s="34"/>
+      <c r="I192" s="34"/>
     </row>
     <row r="193" spans="4:9" x14ac:dyDescent="0.3">
-      <c r="D193" s="27"/>
-      <c r="E193" s="33"/>
-      <c r="F193" s="28"/>
-      <c r="G193" s="27"/>
-      <c r="H193" s="33"/>
-      <c r="I193" s="28"/>
+      <c r="D193" s="34"/>
+      <c r="E193" s="34"/>
+      <c r="F193" s="34"/>
+      <c r="G193" s="34"/>
+      <c r="H193" s="34"/>
+      <c r="I193" s="34"/>
     </row>
     <row r="194" spans="4:9" x14ac:dyDescent="0.3">
-      <c r="D194" s="29"/>
+      <c r="D194" s="34"/>
       <c r="E194" s="34"/>
-      <c r="F194" s="30"/>
-      <c r="G194" s="29"/>
+      <c r="F194" s="34"/>
+      <c r="G194" s="34"/>
       <c r="H194" s="34"/>
-      <c r="I194" s="30"/>
+      <c r="I194" s="34"/>
     </row>
     <row r="195" spans="4:9" x14ac:dyDescent="0.3">
-      <c r="D195" s="29"/>
+      <c r="D195" s="34"/>
       <c r="E195" s="34"/>
-      <c r="F195" s="30"/>
-      <c r="G195" s="29"/>
+      <c r="F195" s="34"/>
+      <c r="G195" s="34"/>
       <c r="H195" s="34"/>
-      <c r="I195" s="30"/>
+      <c r="I195" s="34"/>
     </row>
     <row r="196" spans="4:9" x14ac:dyDescent="0.3">
-      <c r="D196" s="29"/>
+      <c r="D196" s="34"/>
       <c r="E196" s="34"/>
-      <c r="F196" s="30"/>
-      <c r="G196" s="29"/>
+      <c r="F196" s="34"/>
+      <c r="G196" s="34"/>
       <c r="H196" s="34"/>
-      <c r="I196" s="30"/>
-    </row>
-    <row r="197" spans="4:9" x14ac:dyDescent="0.3">
-      <c r="D197" s="31"/>
-      <c r="E197" s="35"/>
-      <c r="F197" s="32"/>
-      <c r="G197" s="31"/>
-      <c r="H197" s="35"/>
-      <c r="I197" s="32"/>
+      <c r="I196" s="34"/>
+    </row>
+    <row r="198" spans="4:9" x14ac:dyDescent="0.3">
+      <c r="D198" s="27"/>
+      <c r="E198" s="33"/>
+      <c r="F198" s="28"/>
+      <c r="G198" s="33"/>
+      <c r="H198" s="33"/>
+      <c r="I198" s="28"/>
     </row>
     <row r="199" spans="4:9" x14ac:dyDescent="0.3">
-      <c r="D199" s="27"/>
-      <c r="E199" s="33"/>
-      <c r="F199" s="28"/>
-      <c r="G199" s="27"/>
-      <c r="H199" s="33"/>
-      <c r="I199" s="28"/>
+      <c r="D199" s="29"/>
+      <c r="E199" s="52"/>
+      <c r="F199" s="30"/>
+      <c r="G199" s="52"/>
+      <c r="H199" s="34"/>
+      <c r="I199" s="30"/>
     </row>
     <row r="200" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D200" s="29"/>
-      <c r="E200" s="34"/>
+      <c r="E200" s="52"/>
       <c r="F200" s="30"/>
-      <c r="G200" s="29"/>
+      <c r="G200" s="52"/>
       <c r="H200" s="34"/>
       <c r="I200" s="30"/>
     </row>
     <row r="201" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D201" s="29"/>
-      <c r="E201" s="34"/>
+      <c r="E201" s="52"/>
       <c r="F201" s="30"/>
-      <c r="G201" s="29"/>
+      <c r="G201" s="52"/>
       <c r="H201" s="34"/>
       <c r="I201" s="30"/>
     </row>
     <row r="202" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D202" s="29"/>
-      <c r="E202" s="34"/>
+      <c r="E202" s="52"/>
       <c r="F202" s="30"/>
-      <c r="G202" s="29"/>
+      <c r="G202" s="52"/>
       <c r="H202" s="34"/>
       <c r="I202" s="30"/>
     </row>
     <row r="203" spans="4:9" x14ac:dyDescent="0.3">
-      <c r="D203" s="29"/>
-      <c r="E203" s="34"/>
-      <c r="F203" s="30"/>
-      <c r="G203" s="29"/>
+      <c r="D203" s="31"/>
+      <c r="E203" s="35"/>
+      <c r="F203" s="32"/>
+      <c r="G203" s="52"/>
       <c r="H203" s="34"/>
       <c r="I203" s="30"/>
     </row>
@@ -2339,28 +2583,28 @@
       <c r="I207" s="30"/>
     </row>
     <row r="208" spans="4:9" x14ac:dyDescent="0.3">
-      <c r="D208" s="29"/>
-      <c r="E208" s="34"/>
-      <c r="F208" s="30"/>
-      <c r="G208" s="29"/>
-      <c r="H208" s="34"/>
-      <c r="I208" s="30"/>
-    </row>
-    <row r="209" spans="4:9" x14ac:dyDescent="0.3">
-      <c r="D209" s="31"/>
-      <c r="E209" s="35"/>
-      <c r="F209" s="32"/>
-      <c r="G209" s="31"/>
-      <c r="H209" s="35"/>
-      <c r="I209" s="32"/>
+      <c r="D208" s="31"/>
+      <c r="E208" s="35"/>
+      <c r="F208" s="32"/>
+      <c r="G208" s="31"/>
+      <c r="H208" s="35"/>
+      <c r="I208" s="32"/>
+    </row>
+    <row r="210" spans="4:9" x14ac:dyDescent="0.3">
+      <c r="D210" s="27"/>
+      <c r="E210" s="33"/>
+      <c r="F210" s="33"/>
+      <c r="G210" s="33"/>
+      <c r="H210" s="33"/>
+      <c r="I210" s="28"/>
     </row>
     <row r="211" spans="4:9" x14ac:dyDescent="0.3">
-      <c r="D211" s="27"/>
-      <c r="E211" s="33"/>
-      <c r="F211" s="33"/>
-      <c r="G211" s="33"/>
-      <c r="H211" s="33"/>
-      <c r="I211" s="28"/>
+      <c r="D211" s="29"/>
+      <c r="E211" s="34"/>
+      <c r="F211" s="34"/>
+      <c r="G211" s="34"/>
+      <c r="H211" s="34"/>
+      <c r="I211" s="30"/>
     </row>
     <row r="212" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D212" s="29"/>
@@ -2403,40 +2647,37 @@
       <c r="I216" s="30"/>
     </row>
     <row r="217" spans="4:9" x14ac:dyDescent="0.3">
-      <c r="D217" s="29"/>
-      <c r="E217" s="34"/>
-      <c r="F217" s="34"/>
-      <c r="G217" s="34"/>
-      <c r="H217" s="34"/>
-      <c r="I217" s="30"/>
-    </row>
-    <row r="218" spans="4:9" x14ac:dyDescent="0.3">
-      <c r="D218" s="31"/>
-      <c r="E218" s="35"/>
-      <c r="F218" s="35"/>
-      <c r="G218" s="35"/>
-      <c r="H218" s="35"/>
-      <c r="I218" s="32"/>
-    </row>
-    <row r="222" spans="4:9" x14ac:dyDescent="0.3">
-      <c r="E222" s="39" t="s">
-        <v>55</v>
-      </c>
-      <c r="F222" s="39"/>
-      <c r="G222" s="39"/>
+      <c r="D217" s="31"/>
+      <c r="E217" s="35"/>
+      <c r="F217" s="35"/>
+      <c r="G217" s="35"/>
+      <c r="H217" s="35"/>
+      <c r="I217" s="32"/>
+    </row>
+    <row r="221" spans="4:9" ht="21" x14ac:dyDescent="0.4">
+      <c r="E221" s="77" t="s">
+        <v>54</v>
+      </c>
+      <c r="F221" s="77"/>
+      <c r="G221" s="77"/>
+    </row>
+    <row r="223" spans="4:9" x14ac:dyDescent="0.3">
+      <c r="G223" s="37"/>
+      <c r="H223" s="38"/>
+      <c r="I223" s="36"/>
     </row>
     <row r="224" spans="4:9" x14ac:dyDescent="0.3">
-      <c r="G224" s="26"/>
-      <c r="H224" s="26"/>
-      <c r="I224" s="26"/>
+      <c r="D224" s="27"/>
+      <c r="E224" s="33"/>
+      <c r="F224" s="28"/>
+      <c r="G224" s="24"/>
+      <c r="H224" s="24"/>
+      <c r="I224" s="25"/>
     </row>
     <row r="225" spans="4:10" x14ac:dyDescent="0.3">
-      <c r="D225" s="27"/>
-      <c r="E225" s="33"/>
-      <c r="F225" s="28"/>
-      <c r="G225" s="24"/>
-      <c r="H225" s="24"/>
-      <c r="I225" s="25"/>
+      <c r="D225" s="29"/>
+      <c r="E225" s="34"/>
+      <c r="F225" s="30"/>
     </row>
     <row r="226" spans="4:10" x14ac:dyDescent="0.3">
       <c r="D226" s="29"/>
@@ -2446,28 +2687,31 @@
     <row r="227" spans="4:10" x14ac:dyDescent="0.3">
       <c r="D227" s="29"/>
       <c r="E227" s="34"/>
-      <c r="F227" s="30"/>
+      <c r="F227" s="34"/>
+      <c r="G227" s="26"/>
+      <c r="H227" s="26"/>
+      <c r="I227" s="26"/>
     </row>
     <row r="228" spans="4:10" x14ac:dyDescent="0.3">
-      <c r="D228" s="29"/>
-      <c r="E228" s="34"/>
-      <c r="F228" s="34"/>
-      <c r="G228" s="26"/>
-      <c r="H228" s="26"/>
-      <c r="I228" s="26"/>
-    </row>
-    <row r="229" spans="4:10" x14ac:dyDescent="0.3">
-      <c r="D229" s="31"/>
-      <c r="E229" s="35"/>
-      <c r="F229" s="32"/>
+      <c r="D228" s="31"/>
+      <c r="E228" s="35"/>
+      <c r="F228" s="32"/>
+    </row>
+    <row r="230" spans="4:10" x14ac:dyDescent="0.3">
+      <c r="D230" s="27"/>
+      <c r="E230" s="33"/>
+      <c r="F230" s="33"/>
+      <c r="G230" s="28"/>
+      <c r="H230" s="27"/>
+      <c r="I230" s="28"/>
     </row>
     <row r="231" spans="4:10" x14ac:dyDescent="0.3">
-      <c r="D231" s="27"/>
-      <c r="E231" s="33"/>
-      <c r="F231" s="33"/>
-      <c r="G231" s="28"/>
-      <c r="H231" s="27"/>
-      <c r="I231" s="28"/>
+      <c r="D231" s="29"/>
+      <c r="E231" s="34"/>
+      <c r="F231" s="34"/>
+      <c r="G231" s="30"/>
+      <c r="H231" s="29"/>
+      <c r="I231" s="30"/>
     </row>
     <row r="232" spans="4:10" x14ac:dyDescent="0.3">
       <c r="D232" s="29"/>
@@ -2490,51 +2734,52 @@
       <c r="E234" s="34"/>
       <c r="F234" s="34"/>
       <c r="G234" s="30"/>
-      <c r="H234" s="29"/>
-      <c r="I234" s="30"/>
+      <c r="H234" s="31"/>
+      <c r="I234" s="32"/>
     </row>
     <row r="235" spans="4:10" x14ac:dyDescent="0.3">
       <c r="D235" s="29"/>
       <c r="E235" s="34"/>
       <c r="F235" s="34"/>
       <c r="G235" s="30"/>
-      <c r="H235" s="31"/>
-      <c r="I235" s="32"/>
     </row>
     <row r="236" spans="4:10" x14ac:dyDescent="0.3">
       <c r="D236" s="29"/>
       <c r="E236" s="34"/>
       <c r="F236" s="34"/>
-      <c r="G236" s="30"/>
+      <c r="G236" s="34"/>
+      <c r="H236" s="27"/>
+      <c r="I236" s="33"/>
+      <c r="J236" s="28"/>
     </row>
     <row r="237" spans="4:10" x14ac:dyDescent="0.3">
-      <c r="D237" s="29"/>
-      <c r="E237" s="34"/>
-      <c r="F237" s="34"/>
-      <c r="G237" s="34"/>
-      <c r="H237" s="27"/>
-      <c r="I237" s="33"/>
-      <c r="J237" s="28"/>
+      <c r="D237" s="31"/>
+      <c r="E237" s="35"/>
+      <c r="F237" s="35"/>
+      <c r="G237" s="35"/>
+      <c r="H237" s="29"/>
+      <c r="I237" s="34"/>
+      <c r="J237" s="30"/>
     </row>
     <row r="238" spans="4:10" x14ac:dyDescent="0.3">
-      <c r="D238" s="31"/>
-      <c r="E238" s="35"/>
-      <c r="F238" s="35"/>
-      <c r="G238" s="35"/>
       <c r="H238" s="29"/>
       <c r="I238" s="34"/>
       <c r="J238" s="30"/>
     </row>
     <row r="239" spans="4:10" x14ac:dyDescent="0.3">
+      <c r="D239" s="27"/>
+      <c r="E239" s="33"/>
+      <c r="F239" s="33"/>
+      <c r="G239" s="33"/>
       <c r="H239" s="29"/>
       <c r="I239" s="34"/>
       <c r="J239" s="30"/>
     </row>
     <row r="240" spans="4:10" x14ac:dyDescent="0.3">
-      <c r="D240" s="27"/>
-      <c r="E240" s="33"/>
-      <c r="F240" s="33"/>
-      <c r="G240" s="33"/>
+      <c r="D240" s="29"/>
+      <c r="E240" s="34"/>
+      <c r="F240" s="34"/>
+      <c r="G240" s="34"/>
       <c r="H240" s="29"/>
       <c r="I240" s="34"/>
       <c r="J240" s="30"/>
@@ -2558,62 +2803,61 @@
       <c r="J242" s="30"/>
     </row>
     <row r="243" spans="4:10" x14ac:dyDescent="0.3">
-      <c r="D243" s="29"/>
-      <c r="E243" s="34"/>
-      <c r="F243" s="34"/>
-      <c r="G243" s="34"/>
+      <c r="D243" s="31"/>
+      <c r="E243" s="35"/>
+      <c r="F243" s="35"/>
+      <c r="G243" s="35"/>
       <c r="H243" s="29"/>
       <c r="I243" s="34"/>
       <c r="J243" s="30"/>
     </row>
     <row r="244" spans="4:10" x14ac:dyDescent="0.3">
-      <c r="D244" s="31"/>
-      <c r="E244" s="35"/>
-      <c r="F244" s="35"/>
-      <c r="G244" s="35"/>
       <c r="H244" s="29"/>
       <c r="I244" s="34"/>
       <c r="J244" s="30"/>
     </row>
     <row r="245" spans="4:10" x14ac:dyDescent="0.3">
+      <c r="D245" s="27"/>
+      <c r="E245" s="33"/>
+      <c r="F245" s="33"/>
+      <c r="G245" s="33"/>
       <c r="H245" s="29"/>
       <c r="I245" s="34"/>
       <c r="J245" s="30"/>
     </row>
     <row r="246" spans="4:10" x14ac:dyDescent="0.3">
-      <c r="D246" s="27"/>
-      <c r="E246" s="33"/>
-      <c r="F246" s="33"/>
-      <c r="G246" s="33"/>
+      <c r="D246" s="29"/>
+      <c r="E246" s="34"/>
+      <c r="F246" s="34"/>
+      <c r="G246" s="34"/>
       <c r="H246" s="29"/>
       <c r="I246" s="34"/>
       <c r="J246" s="30"/>
     </row>
     <row r="247" spans="4:10" x14ac:dyDescent="0.3">
-      <c r="D247" s="29"/>
-      <c r="E247" s="34"/>
-      <c r="F247" s="34"/>
-      <c r="G247" s="34"/>
-      <c r="H247" s="29"/>
-      <c r="I247" s="34"/>
-      <c r="J247" s="30"/>
-    </row>
-    <row r="248" spans="4:10" x14ac:dyDescent="0.3">
-      <c r="D248" s="31"/>
-      <c r="E248" s="35"/>
-      <c r="F248" s="35"/>
-      <c r="G248" s="35"/>
-      <c r="H248" s="31"/>
-      <c r="I248" s="35"/>
-      <c r="J248" s="32"/>
+      <c r="D247" s="31"/>
+      <c r="E247" s="35"/>
+      <c r="F247" s="35"/>
+      <c r="G247" s="35"/>
+      <c r="H247" s="31"/>
+      <c r="I247" s="35"/>
+      <c r="J247" s="32"/>
+    </row>
+    <row r="249" spans="4:10" x14ac:dyDescent="0.3">
+      <c r="D249" s="27"/>
+      <c r="E249" s="33"/>
+      <c r="F249" s="33"/>
+      <c r="G249" s="33"/>
+      <c r="H249" s="33"/>
+      <c r="I249" s="28"/>
     </row>
     <row r="250" spans="4:10" x14ac:dyDescent="0.3">
-      <c r="D250" s="27"/>
-      <c r="E250" s="33"/>
-      <c r="F250" s="33"/>
-      <c r="G250" s="33"/>
-      <c r="H250" s="33"/>
-      <c r="I250" s="28"/>
+      <c r="D250" s="29"/>
+      <c r="E250" s="34"/>
+      <c r="F250" s="34"/>
+      <c r="G250" s="34"/>
+      <c r="H250" s="34"/>
+      <c r="I250" s="30"/>
     </row>
     <row r="251" spans="4:10" x14ac:dyDescent="0.3">
       <c r="D251" s="29"/>
@@ -2640,43 +2884,361 @@
       <c r="I253" s="30"/>
     </row>
     <row r="254" spans="4:10" x14ac:dyDescent="0.3">
-      <c r="D254" s="29"/>
-      <c r="E254" s="34"/>
-      <c r="F254" s="34"/>
-      <c r="G254" s="34"/>
-      <c r="H254" s="34"/>
-      <c r="I254" s="30"/>
-    </row>
-    <row r="255" spans="4:10" x14ac:dyDescent="0.3">
-      <c r="D255" s="31"/>
-      <c r="E255" s="35"/>
-      <c r="F255" s="35"/>
-      <c r="G255" s="35"/>
-      <c r="H255" s="35"/>
-      <c r="I255" s="32"/>
-    </row>
-    <row r="260" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="C260" s="52" t="s">
+      <c r="D254" s="31"/>
+      <c r="E254" s="35"/>
+      <c r="F254" s="35"/>
+      <c r="G254" s="35"/>
+      <c r="H254" s="35"/>
+      <c r="I254" s="32"/>
+    </row>
+    <row r="268" spans="3:9" ht="21" x14ac:dyDescent="0.4">
+      <c r="D268" s="78" t="s">
+        <v>85</v>
+      </c>
+      <c r="E268" s="78"/>
+      <c r="F268" s="78"/>
+      <c r="G268" s="78"/>
+      <c r="H268" s="78"/>
+    </row>
+    <row r="270" spans="3:9" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C270" s="56" t="s">
+        <v>55</v>
+      </c>
+      <c r="D270" s="56"/>
+      <c r="E270" s="56" t="s">
+        <v>57</v>
+      </c>
+      <c r="F270" s="56"/>
+      <c r="G270" s="57" t="s">
+        <v>86</v>
+      </c>
+      <c r="H270" s="58" t="s">
+        <v>60</v>
+      </c>
+      <c r="I270" s="59" t="s">
         <v>56</v>
       </c>
-      <c r="D260" s="52"/>
-      <c r="E260" s="52" t="s">
+    </row>
+    <row r="271" spans="3:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="C271" s="60" t="s">
+        <v>59</v>
+      </c>
+      <c r="D271" s="60"/>
+      <c r="E271" s="60" t="s">
+        <v>61</v>
+      </c>
+      <c r="F271" s="60"/>
+      <c r="G271" s="57" t="s">
         <v>58</v>
       </c>
-      <c r="F260" s="52"/>
-      <c r="G260" s="53" t="s">
-        <v>59</v>
-      </c>
-      <c r="H260" s="54" t="s">
+      <c r="H271" s="58" t="s">
+        <v>62</v>
+      </c>
+      <c r="I271" s="62" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="272" spans="3:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="C272" s="60" t="s">
+        <v>63</v>
+      </c>
+      <c r="D272" s="60"/>
+      <c r="E272" s="60" t="s">
+        <v>61</v>
+      </c>
+      <c r="F272" s="60"/>
+      <c r="G272" s="57" t="s">
+        <v>86</v>
+      </c>
+      <c r="H272" s="58" t="s">
+        <v>60</v>
+      </c>
+      <c r="I272" s="59" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="273" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="C273" s="60" t="s">
+        <v>64</v>
+      </c>
+      <c r="D273" s="60"/>
+      <c r="E273" s="56" t="s">
         <v>57</v>
       </c>
-      <c r="I260" s="54"/>
+      <c r="F273" s="56"/>
+      <c r="G273" s="57" t="s">
+        <v>58</v>
+      </c>
+      <c r="H273" s="58" t="s">
+        <v>65</v>
+      </c>
+      <c r="I273" s="63" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="274" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="C274" s="60" t="s">
+        <v>66</v>
+      </c>
+      <c r="D274" s="60"/>
+      <c r="E274" s="60" t="s">
+        <v>57</v>
+      </c>
+      <c r="F274" s="60"/>
+      <c r="G274" s="61" t="s">
+        <v>67</v>
+      </c>
+      <c r="H274" s="58" t="s">
+        <v>62</v>
+      </c>
+      <c r="I274" s="62" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="275" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="C275" s="60" t="s">
+        <v>68</v>
+      </c>
+      <c r="D275" s="60"/>
+      <c r="E275" s="60" t="s">
+        <v>61</v>
+      </c>
+      <c r="F275" s="60"/>
+      <c r="G275" s="61" t="s">
+        <v>67</v>
+      </c>
+      <c r="H275" s="58" t="s">
+        <v>65</v>
+      </c>
+      <c r="I275" s="64" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="276" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="C276" s="60" t="s">
+        <v>69</v>
+      </c>
+      <c r="D276" s="60"/>
+      <c r="E276" s="60" t="s">
+        <v>61</v>
+      </c>
+      <c r="F276" s="60"/>
+      <c r="G276" s="61" t="s">
+        <v>67</v>
+      </c>
+      <c r="H276" s="58" t="s">
+        <v>65</v>
+      </c>
+      <c r="I276" s="64" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="277" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="C277" s="60" t="s">
+        <v>69</v>
+      </c>
+      <c r="D277" s="60"/>
+      <c r="E277" s="60" t="s">
+        <v>61</v>
+      </c>
+      <c r="F277" s="60"/>
+      <c r="G277" s="61" t="s">
+        <v>67</v>
+      </c>
+      <c r="H277" s="58" t="s">
+        <v>62</v>
+      </c>
+      <c r="I277" s="62" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="278" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="C278" s="53"/>
+      <c r="D278" s="54"/>
+      <c r="E278" s="54"/>
+      <c r="F278" s="54"/>
+      <c r="G278" s="54"/>
+      <c r="H278" s="54"/>
+      <c r="I278" s="55"/>
+    </row>
+    <row r="281" spans="1:9" ht="21" x14ac:dyDescent="0.4">
+      <c r="D281" s="77" t="s">
+        <v>70</v>
+      </c>
+      <c r="E281" s="77"/>
+      <c r="F281" s="77"/>
+      <c r="G281" s="77"/>
+    </row>
+    <row r="284" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="E284" s="65" t="s">
+        <v>49</v>
+      </c>
+      <c r="F284" s="65"/>
+    </row>
+    <row r="285" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="E285" s="65"/>
+      <c r="F285" s="65"/>
+    </row>
+    <row r="287" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+      <c r="C287" s="70" t="s">
+        <v>71</v>
+      </c>
+      <c r="D287" s="66"/>
+      <c r="E287" s="70" t="s">
+        <v>72</v>
+      </c>
+      <c r="F287" s="67"/>
+      <c r="G287" s="69" t="s">
+        <v>73</v>
+      </c>
+      <c r="H287" s="68"/>
+      <c r="I287" s="69" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="288" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A288" s="71"/>
+      <c r="B288" s="71"/>
+      <c r="C288" s="72"/>
+      <c r="D288" s="72"/>
+      <c r="E288" s="73" t="s">
+        <v>80</v>
+      </c>
+      <c r="F288" s="73"/>
+      <c r="G288" s="73" t="s">
+        <v>81</v>
+      </c>
+      <c r="H288" s="73"/>
+      <c r="I288" s="74" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="289" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A289" s="71"/>
+      <c r="B289" s="71"/>
+      <c r="C289" s="75" t="s">
+        <v>75</v>
+      </c>
+      <c r="D289" s="75"/>
+      <c r="E289" s="74"/>
+      <c r="F289" s="74"/>
+      <c r="G289" s="73" t="s">
+        <v>82</v>
+      </c>
+      <c r="H289" s="73"/>
+      <c r="I289" s="74" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="290" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A290" s="71"/>
+      <c r="B290" s="71"/>
+      <c r="C290" s="75" t="s">
+        <v>76</v>
+      </c>
+      <c r="D290" s="75"/>
+      <c r="E290" s="74"/>
+      <c r="F290" s="74"/>
+      <c r="G290" s="74"/>
+      <c r="H290" s="74"/>
+      <c r="I290" s="74"/>
+    </row>
+    <row r="291" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A291" s="71"/>
+      <c r="B291" s="71"/>
+      <c r="C291" s="75" t="s">
+        <v>77</v>
+      </c>
+      <c r="D291" s="75"/>
+      <c r="E291" s="74"/>
+      <c r="F291" s="74"/>
+      <c r="G291" s="74"/>
+      <c r="H291" s="74"/>
+      <c r="I291" s="74"/>
+    </row>
+    <row r="292" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A292" s="71"/>
+      <c r="B292" s="71"/>
+      <c r="C292" s="75" t="s">
+        <v>78</v>
+      </c>
+      <c r="D292" s="75"/>
+      <c r="E292" s="74"/>
+      <c r="F292" s="74"/>
+      <c r="G292" s="74"/>
+      <c r="H292" s="74"/>
+      <c r="I292" s="74"/>
+    </row>
+    <row r="293" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A293" s="71"/>
+      <c r="B293" s="71"/>
+      <c r="C293" s="75" t="s">
+        <v>79</v>
+      </c>
+      <c r="D293" s="75"/>
+      <c r="E293" s="74"/>
+      <c r="F293" s="74"/>
+      <c r="G293" s="74"/>
+      <c r="H293" s="74"/>
+      <c r="I293" s="74"/>
+    </row>
+    <row r="294" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="C294" s="74"/>
+      <c r="D294" s="74"/>
+      <c r="E294" s="74"/>
+      <c r="F294" s="74"/>
+      <c r="G294" s="74"/>
+      <c r="H294" s="74"/>
+      <c r="I294" s="74"/>
+    </row>
+    <row r="295" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="C295" s="74"/>
+      <c r="D295" s="74"/>
+      <c r="E295" s="74"/>
+      <c r="F295" s="74"/>
+      <c r="G295" s="74"/>
+      <c r="H295" s="74"/>
+      <c r="I295" s="74"/>
     </row>
   </sheetData>
-  <mergeCells count="26">
-    <mergeCell ref="C260:D260"/>
-    <mergeCell ref="E260:F260"/>
-    <mergeCell ref="H260:I260"/>
+  <mergeCells count="50">
+    <mergeCell ref="C292:D292"/>
+    <mergeCell ref="C293:D293"/>
+    <mergeCell ref="E288:F288"/>
+    <mergeCell ref="G288:H288"/>
+    <mergeCell ref="G289:H289"/>
+    <mergeCell ref="C289:D289"/>
+    <mergeCell ref="C290:D290"/>
+    <mergeCell ref="C291:D291"/>
+    <mergeCell ref="C277:D277"/>
+    <mergeCell ref="E277:F277"/>
+    <mergeCell ref="D268:H268"/>
+    <mergeCell ref="D281:G281"/>
+    <mergeCell ref="E284:F285"/>
+    <mergeCell ref="C275:D275"/>
+    <mergeCell ref="E275:F275"/>
+    <mergeCell ref="C276:D276"/>
+    <mergeCell ref="E276:F276"/>
+    <mergeCell ref="C273:D273"/>
+    <mergeCell ref="E273:F273"/>
+    <mergeCell ref="C274:D274"/>
+    <mergeCell ref="E274:F274"/>
+    <mergeCell ref="C271:D271"/>
+    <mergeCell ref="E271:F271"/>
+    <mergeCell ref="C272:D272"/>
+    <mergeCell ref="E272:F272"/>
+    <mergeCell ref="C13:J13"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="C18:J18"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="C12:I12"/>
+    <mergeCell ref="C2:I2"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="C11:J11"/>
+    <mergeCell ref="C270:D270"/>
+    <mergeCell ref="E270:F270"/>
     <mergeCell ref="F93:I93"/>
     <mergeCell ref="B45:I45"/>
     <mergeCell ref="C62:I62"/>
@@ -2684,19 +3246,9 @@
     <mergeCell ref="C55:D55"/>
     <mergeCell ref="C60:D60"/>
     <mergeCell ref="F90:I90"/>
-    <mergeCell ref="D128:G128"/>
-    <mergeCell ref="E175:G175"/>
-    <mergeCell ref="E222:G222"/>
-    <mergeCell ref="C2:I2"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="C11:J11"/>
-    <mergeCell ref="C13:J13"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="C18:J18"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="C12:I12"/>
+    <mergeCell ref="D127:G127"/>
+    <mergeCell ref="E174:G174"/>
+    <mergeCell ref="E221:G221"/>
     <mergeCell ref="F91:I91"/>
     <mergeCell ref="F92:I92"/>
     <mergeCell ref="F94:I94"/>
